--- a/natmiOut/OldD0/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.51411174374402</v>
+        <v>3.910463666666666</v>
       </c>
       <c r="H2">
-        <v>3.51411174374402</v>
+        <v>11.731391</v>
       </c>
       <c r="I2">
-        <v>0.02352521790570765</v>
+        <v>0.02584512419166262</v>
       </c>
       <c r="J2">
-        <v>0.02352521790570765</v>
+        <v>0.02584512419166263</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.85247143145312</v>
+        <v>9.210619666666666</v>
       </c>
       <c r="N2">
-        <v>8.85247143145312</v>
+        <v>27.631859</v>
       </c>
       <c r="O2">
-        <v>0.1293660089261771</v>
+        <v>0.133636377806767</v>
       </c>
       <c r="P2">
-        <v>0.1293660089261771</v>
+        <v>0.133636377806767</v>
       </c>
       <c r="Q2">
-        <v>31.10857381842784</v>
+        <v>36.01779355398544</v>
       </c>
       <c r="R2">
-        <v>31.10857381842784</v>
+        <v>324.160141985869</v>
       </c>
       <c r="S2">
-        <v>0.003043363549580035</v>
+        <v>0.00345384878093984</v>
       </c>
       <c r="T2">
-        <v>0.003043363549580035</v>
+        <v>0.00345384878093984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.51411174374402</v>
+        <v>3.910463666666666</v>
       </c>
       <c r="H3">
-        <v>3.51411174374402</v>
+        <v>11.731391</v>
       </c>
       <c r="I3">
-        <v>0.02352521790570765</v>
+        <v>0.02584512419166262</v>
       </c>
       <c r="J3">
-        <v>0.02352521790570765</v>
+        <v>0.02584512419166263</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>43.8693040918703</v>
+        <v>43.97212233333332</v>
       </c>
       <c r="N3">
-        <v>43.8693040918703</v>
+        <v>131.916367</v>
       </c>
       <c r="O3">
-        <v>0.6410861451153527</v>
+        <v>0.6379891218794987</v>
       </c>
       <c r="P3">
-        <v>0.6410861451153527</v>
+        <v>0.6379891218794989</v>
       </c>
       <c r="Q3">
-        <v>154.161636699119</v>
+        <v>171.9513867307219</v>
       </c>
       <c r="R3">
-        <v>154.161636699119</v>
+        <v>1547.562480576497</v>
       </c>
       <c r="S3">
-        <v>0.01508169126016879</v>
+        <v>0.01648890808790543</v>
       </c>
       <c r="T3">
-        <v>0.01508169126016879</v>
+        <v>0.01648890808790543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.51411174374402</v>
+        <v>3.910463666666666</v>
       </c>
       <c r="H4">
-        <v>3.51411174374402</v>
+        <v>11.731391</v>
       </c>
       <c r="I4">
-        <v>0.02352521790570765</v>
+        <v>0.02584512419166262</v>
       </c>
       <c r="J4">
-        <v>0.02352521790570765</v>
+        <v>0.02584512419166263</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.7078800325251</v>
+        <v>15.740255</v>
       </c>
       <c r="N4">
-        <v>15.7078800325251</v>
+        <v>47.220765</v>
       </c>
       <c r="O4">
-        <v>0.2295478459584704</v>
+        <v>0.2283745003137342</v>
       </c>
       <c r="P4">
-        <v>0.2295478459584704</v>
+        <v>0.2283745003137342</v>
       </c>
       <c r="Q4">
-        <v>55.19924569161865</v>
+        <v>61.55169528156833</v>
       </c>
       <c r="R4">
-        <v>55.19924569161865</v>
+        <v>553.9652575341149</v>
       </c>
       <c r="S4">
-        <v>0.005400163095958827</v>
+        <v>0.005902367322817355</v>
       </c>
       <c r="T4">
-        <v>0.005400163095958827</v>
+        <v>0.005902367322817357</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>123.809569656664</v>
+        <v>125.0119883333333</v>
       </c>
       <c r="H5">
-        <v>123.809569656664</v>
+        <v>375.035965</v>
       </c>
       <c r="I5">
-        <v>0.82884305263489</v>
+        <v>0.826232037766454</v>
       </c>
       <c r="J5">
-        <v>0.82884305263489</v>
+        <v>0.8262320377664542</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.85247143145312</v>
+        <v>9.210619666666666</v>
       </c>
       <c r="N5">
-        <v>8.85247143145312</v>
+        <v>27.631859</v>
       </c>
       <c r="O5">
-        <v>0.1293660089261771</v>
+        <v>0.133636377806767</v>
       </c>
       <c r="P5">
-        <v>0.1293660089261771</v>
+        <v>0.133636377806767</v>
       </c>
       <c r="Q5">
-        <v>1096.020678326123</v>
+        <v>1151.437878312104</v>
       </c>
       <c r="R5">
-        <v>1096.020678326123</v>
+        <v>10362.94090480893</v>
       </c>
       <c r="S5">
-        <v>0.107224117745565</v>
+        <v>0.1104146567550128</v>
       </c>
       <c r="T5">
-        <v>0.107224117745565</v>
+        <v>0.1104146567550128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>123.809569656664</v>
+        <v>125.0119883333333</v>
       </c>
       <c r="H6">
-        <v>123.809569656664</v>
+        <v>375.035965</v>
       </c>
       <c r="I6">
-        <v>0.82884305263489</v>
+        <v>0.826232037766454</v>
       </c>
       <c r="J6">
-        <v>0.82884305263489</v>
+        <v>0.8262320377664542</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.8693040918703</v>
+        <v>43.97212233333332</v>
       </c>
       <c r="N6">
-        <v>43.8693040918703</v>
+        <v>131.916367</v>
       </c>
       <c r="O6">
-        <v>0.6410861451153527</v>
+        <v>0.6379891218794987</v>
       </c>
       <c r="P6">
-        <v>0.6410861451153527</v>
+        <v>0.6379891218794989</v>
       </c>
       <c r="Q6">
-        <v>5431.43966075179</v>
+        <v>5497.042444126572</v>
       </c>
       <c r="R6">
-        <v>5431.43966075179</v>
+        <v>49473.38199713915</v>
       </c>
       <c r="S6">
-        <v>0.5313597975193429</v>
+        <v>0.5271270522433289</v>
       </c>
       <c r="T6">
-        <v>0.5313597975193429</v>
+        <v>0.527127052243329</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>123.809569656664</v>
+        <v>125.0119883333333</v>
       </c>
       <c r="H7">
-        <v>123.809569656664</v>
+        <v>375.035965</v>
       </c>
       <c r="I7">
-        <v>0.82884305263489</v>
+        <v>0.826232037766454</v>
       </c>
       <c r="J7">
-        <v>0.82884305263489</v>
+        <v>0.8262320377664542</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.7078800325251</v>
+        <v>15.740255</v>
       </c>
       <c r="N7">
-        <v>15.7078800325251</v>
+        <v>47.220765</v>
       </c>
       <c r="O7">
-        <v>0.2295478459584704</v>
+        <v>0.2283745003137342</v>
       </c>
       <c r="P7">
-        <v>0.2295478459584704</v>
+        <v>0.2283745003137342</v>
       </c>
       <c r="Q7">
-        <v>1944.785867045438</v>
+        <v>1967.720574423692</v>
       </c>
       <c r="R7">
-        <v>1944.785867045438</v>
+        <v>17709.48516981323</v>
       </c>
       <c r="S7">
-        <v>0.1902591373699821</v>
+        <v>0.1886903287681123</v>
       </c>
       <c r="T7">
-        <v>0.1902591373699821</v>
+        <v>0.1886903287681123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.0526924053127</v>
+        <v>22.381277</v>
       </c>
       <c r="H8">
-        <v>22.0526924053127</v>
+        <v>67.14383099999999</v>
       </c>
       <c r="I8">
-        <v>0.1476317294594022</v>
+        <v>0.1479228380418832</v>
       </c>
       <c r="J8">
-        <v>0.1476317294594022</v>
+        <v>0.1479228380418833</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.85247143145312</v>
+        <v>9.210619666666666</v>
       </c>
       <c r="N8">
-        <v>8.85247143145312</v>
+        <v>27.631859</v>
       </c>
       <c r="O8">
-        <v>0.1293660089261771</v>
+        <v>0.133636377806767</v>
       </c>
       <c r="P8">
-        <v>0.1293660089261771</v>
+        <v>0.133636377806767</v>
       </c>
       <c r="Q8">
-        <v>195.2208295046539</v>
+        <v>206.1454301013143</v>
       </c>
       <c r="R8">
-        <v>195.2208295046539</v>
+        <v>1855.308870911829</v>
       </c>
       <c r="S8">
-        <v>0.01909852763103198</v>
+        <v>0.01976787227081431</v>
       </c>
       <c r="T8">
-        <v>0.01909852763103198</v>
+        <v>0.01976787227081432</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.0526924053127</v>
+        <v>22.381277</v>
       </c>
       <c r="H9">
-        <v>22.0526924053127</v>
+        <v>67.14383099999999</v>
       </c>
       <c r="I9">
-        <v>0.1476317294594022</v>
+        <v>0.1479228380418832</v>
       </c>
       <c r="J9">
-        <v>0.1476317294594022</v>
+        <v>0.1479228380418833</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.8693040918703</v>
+        <v>43.97212233333332</v>
       </c>
       <c r="N9">
-        <v>43.8693040918703</v>
+        <v>131.916367</v>
       </c>
       <c r="O9">
-        <v>0.6410861451153527</v>
+        <v>0.6379891218794987</v>
       </c>
       <c r="P9">
-        <v>0.6410861451153527</v>
+        <v>0.6379891218794989</v>
       </c>
       <c r="Q9">
-        <v>967.4362691731416</v>
+        <v>984.1522502202193</v>
       </c>
       <c r="R9">
-        <v>967.4362691731416</v>
+        <v>8857.370251981974</v>
       </c>
       <c r="S9">
-        <v>0.09464465633584082</v>
+        <v>0.0943731615482644</v>
       </c>
       <c r="T9">
-        <v>0.09464465633584082</v>
+        <v>0.09437316154826444</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.0526924053127</v>
+        <v>22.381277</v>
       </c>
       <c r="H10">
-        <v>22.0526924053127</v>
+        <v>67.14383099999999</v>
       </c>
       <c r="I10">
-        <v>0.1476317294594022</v>
+        <v>0.1479228380418832</v>
       </c>
       <c r="J10">
-        <v>0.1476317294594022</v>
+        <v>0.1479228380418833</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.7078800325251</v>
+        <v>15.740255</v>
       </c>
       <c r="N10">
-        <v>15.7078800325251</v>
+        <v>47.220765</v>
       </c>
       <c r="O10">
-        <v>0.2295478459584704</v>
+        <v>0.2283745003137342</v>
       </c>
       <c r="P10">
-        <v>0.2295478459584704</v>
+        <v>0.2283745003137342</v>
       </c>
       <c r="Q10">
-        <v>346.4010466968293</v>
+        <v>352.2870072056349</v>
       </c>
       <c r="R10">
-        <v>346.4010466968293</v>
+        <v>3170.583064850714</v>
       </c>
       <c r="S10">
-        <v>0.03388854549252943</v>
+        <v>0.03378180422280452</v>
       </c>
       <c r="T10">
-        <v>0.03388854549252943</v>
+        <v>0.03378180422280453</v>
       </c>
     </row>
   </sheetData>
